--- a/data/config/optimization_config.xlsx
+++ b/data/config/optimization_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\dissertation-cbrem\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eselerio\projects\dissertation-cbrem\data\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049843E-8ECF-4A86-B2A3-B67AA221ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B2EE2-F26B-4B6B-B217-89F9031FDD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="decision_var_bound" sheetId="4" r:id="rId4"/>
     <sheet name="fuzzy_goal" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Parameter</t>
   </si>
@@ -255,61 +258,19 @@
     <t>Internal recycle flowrate [m3/d]</t>
   </si>
   <si>
-    <t>models\clefo\cstr\cstr.joblib</t>
-  </si>
-  <si>
-    <t>models\clefo\clarifier\clarifier.joblib</t>
-  </si>
-  <si>
     <t>Wastage flow [m3/d]</t>
   </si>
   <si>
-    <t>inf_BOD</t>
-  </si>
-  <si>
-    <t>inf_COD</t>
-  </si>
-  <si>
-    <t>inf_TKN</t>
-  </si>
-  <si>
-    <t>inf_TN</t>
-  </si>
-  <si>
-    <t>inf_TP</t>
-  </si>
-  <si>
-    <t>inf_TSS</t>
-  </si>
-  <si>
-    <t>inf_VSS</t>
-  </si>
-  <si>
-    <t>Raw Influent Biological Oxygen Demand (mg/L)</t>
-  </si>
-  <si>
-    <t>Raw Influent Chemical Oxygen Demand (mg/L)</t>
-  </si>
-  <si>
-    <t>Raw Influent Total Kjedhal Nitrogen (mg/L)</t>
-  </si>
-  <si>
-    <t>Raw Influent Total Nitrogen (mg/L)</t>
-  </si>
-  <si>
-    <t>Raw Influent Total Phosphorus (mg/L)</t>
-  </si>
-  <si>
-    <t>Raw Influent Total Suspended Solids (mg/L)</t>
-  </si>
-  <si>
-    <t>Raw Influent Volatile Suspended Solids (mg/L)</t>
-  </si>
-  <si>
     <t>Target_Effluent_TN (mg/L)</t>
   </si>
   <si>
     <t>Target_Effluent_TKN (mg/L)</t>
+  </si>
+  <si>
+    <t>data\results\training\clefo\clarifier\clarifier.joblib</t>
+  </si>
+  <si>
+    <t>data\results\training\clefo\cstr\cstr.joblib</t>
   </si>
 </sst>
 </file>
@@ -362,6 +323,317 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="input_config"/>
+      <sheetName val="training_components"/>
+      <sheetName val="initial_conditions"/>
+      <sheetName val="all_input_cstr"/>
+      <sheetName val="all_output_cstr"/>
+      <sheetName val="all_input_clarifier"/>
+      <sheetName val="all_output_clarifier"/>
+      <sheetName val="all_input_flows"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>variable</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>baseline</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>flow_rate</v>
+          </cell>
+          <cell r="B2">
+            <v>18446</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Q_was</v>
+          </cell>
+          <cell r="B3">
+            <v>385</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Q_ext</v>
+          </cell>
+          <cell r="B4">
+            <v>18446</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>V_A1</v>
+          </cell>
+          <cell r="B5">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>V_A2</v>
+          </cell>
+          <cell r="B6">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>V_O1</v>
+          </cell>
+          <cell r="B7">
+            <v>1333</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>V_O2</v>
+          </cell>
+          <cell r="B8">
+            <v>1333</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>V_O3</v>
+          </cell>
+          <cell r="B9">
+            <v>1333</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>KLa_A1</v>
+          </cell>
+          <cell r="B10">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>KLa_A2</v>
+          </cell>
+          <cell r="B11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>KLa_O1</v>
+          </cell>
+          <cell r="B12">
+            <v>240</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>KLa_O2</v>
+          </cell>
+          <cell r="B13">
+            <v>240</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>KLa_O3</v>
+          </cell>
+          <cell r="B14">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>O3_split_internal</v>
+          </cell>
+          <cell r="B15">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>C1_surface_area</v>
+          </cell>
+          <cell r="B16">
+            <v>1500</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>C1_height</v>
+          </cell>
+          <cell r="B17">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>inf_S_I</v>
+          </cell>
+          <cell r="B18">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>inf_S_F</v>
+          </cell>
+          <cell r="B19">
+            <v>20.100000000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>inf_S_A</v>
+          </cell>
+          <cell r="B20">
+            <v>94.3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>inf_X_I</v>
+          </cell>
+          <cell r="B21">
+            <v>26.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>inf_X_S</v>
+          </cell>
+          <cell r="B22">
+            <v>409.75</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>inf_S_NH4</v>
+          </cell>
+          <cell r="B23">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>inf_S_N2</v>
+          </cell>
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>inf_S_NO3</v>
+          </cell>
+          <cell r="B25">
+            <v>0.26600000000000001</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>inf_S_PO4</v>
+          </cell>
+          <cell r="B26">
+            <v>2.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>inf_X_PP</v>
+          </cell>
+          <cell r="B27">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>inf_X_PHA</v>
+          </cell>
+          <cell r="B28">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>inf_X_H</v>
+          </cell>
+          <cell r="B29">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>inf_X_AUT</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>inf_X_PAO</v>
+          </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>inf_S_ALK</v>
+          </cell>
+          <cell r="B32">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>inf_S_O2</v>
+          </cell>
+          <cell r="B33">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>inf_X_MeOH</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>inf_X_MeP</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,14 +925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -684,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -698,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -709,15 +981,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Confidential Information</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A20" sqref="A20:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,7 +1017,8 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <f>VLOOKUP(A2,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -753,7 +1029,8 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <f>VLOOKUP(A3,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>26.5</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -764,7 +1041,8 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <f>VLOOKUP(A4,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>20.100000000000001</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -775,7 +1053,8 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <f>VLOOKUP(A5,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>94.3</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -786,7 +1065,8 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>160</v>
+        <f>VLOOKUP(A6,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>409.75</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -797,7 +1077,8 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <f>VLOOKUP(A7,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -808,7 +1089,8 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <f>VLOOKUP(A8,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0.5</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -819,7 +1101,8 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <f>VLOOKUP(A9,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -830,7 +1113,8 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <f>VLOOKUP(A10,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0.26600000000000001</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -841,7 +1125,8 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <f>VLOOKUP(A11,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>2.8</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -852,7 +1137,8 @@
         <v>49</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <f>VLOOKUP(A12,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0.05</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -863,7 +1149,8 @@
         <v>51</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <f>VLOOKUP(A13,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0.5</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -874,7 +1161,8 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <f>VLOOKUP(A14,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0.15</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -885,7 +1173,8 @@
         <v>55</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <f>VLOOKUP(A15,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
@@ -896,7 +1185,8 @@
         <v>57</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <f>VLOOKUP(A16,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -907,7 +1197,8 @@
         <v>59</v>
       </c>
       <c r="B17">
-        <v>150</v>
+        <f>VLOOKUP(A17,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -918,7 +1209,8 @@
         <v>67</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <f>VLOOKUP(A18,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -929,91 +1221,18 @@
         <v>69</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <f>VLOOKUP(A19,[1]input_config!$A:$B,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20">
-        <v>379.82797943309998</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21">
-        <v>1760.4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22">
-        <v>154.42099999999999</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23">
-        <v>174.42099999999999</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24">
-        <v>166.740350277819</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25">
-        <v>1182.6926908329499</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26">
-        <v>771.45741272220005</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Confidential Information</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1101,6 +1320,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Confidential Information</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1241,11 +1463,14 @@
         <v>10000</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Confidential Information</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1253,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,7 +1533,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1319,7 +1544,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1330,5 +1555,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Confidential Information</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>